--- a/dataset/Ch2R_Log_20150614_To_20150615/Data/ID-DA句型模式 - 20170404.xlsx
+++ b/dataset/Ch2R_Log_20150614_To_20150615/Data/ID-DA句型模式 - 20170404.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>2017.04.06 创建，2017.04.06 Last Update</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>陈述句</t>
     </r>
     <r>
@@ -341,12 +347,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF008080"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>u'.*(?=</t>
     </r>
     <r>
       <rPr>
         <sz val="11.5"/>
         <color rgb="FF008080"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>吗</t>
@@ -364,6 +377,7 @@
       <rPr>
         <sz val="11.5"/>
         <color rgb="FF008080"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>呢</t>
@@ -389,37 +403,45 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">*** + </t>
-    </r>
-    <r>
       <rPr>
         <sz val="11.5"/>
         <color rgb="FF7A7A7A"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吗</t>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*** + </t>
     </r>
     <r>
       <rPr>
         <sz val="11.5"/>
         <color rgb="FF7A7A7A"/>
-        <rFont val="Source Code Pro"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吗</t>
     </r>
     <r>
       <rPr>
         <sz val="11.5"/>
         <color rgb="FF7A7A7A"/>
-        <charset val="134"/>
-      </rPr>
-      <t>呢</t>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
         <sz val="11.5"/>
         <color rgb="FF7A7A7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF7A7A7A"/>
         <rFont val="Source Code Pro"/>
         <charset val="134"/>
       </rPr>
@@ -466,6 +488,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF7A7A7A"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">*** + </t>
     </r>
     <r>
@@ -571,6 +599,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FF008080"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="134"/>
+      </rPr>
       <t>u'.*(?:</t>
     </r>
     <r>
@@ -1325,6 +1359,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>候选手机</t>
     </r>
     <r>
@@ -1342,6 +1383,7 @@
         <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>算</t>
@@ -1361,6 +1403,7 @@
         <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>先把</t>
@@ -1380,6 +1423,7 @@
         <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>需要指代消解</t>
@@ -1541,6 +1585,9 @@
   </si>
   <si>
     <t>User : 可以从价格说起吗</t>
+  </si>
+  <si>
+    <t>User : 前置摄像头好吗</t>
   </si>
   <si>
     <t>正反问   (4个)</t>
@@ -4183,12 +4230,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4329,11 +4376,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -4389,6 +4431,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -4404,16 +4451,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4424,9 +4473,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4441,120 +4595,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4617,16 +4658,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <color rgb="FF008080"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <color rgb="FF7A7A7A"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4717,25 +4748,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4747,97 +4778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4855,19 +4808,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4879,19 +4922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5226,11 +5257,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5239,7 +5276,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5262,38 +5299,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5315,11 +5333,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5328,157 +5359,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="38" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
@@ -5695,11 +5726,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5766,7 +5797,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5786,7 +5817,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5794,7 +5825,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5818,7 +5849,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5839,10 +5870,10 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5870,11 +5901,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="21" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5886,7 +5917,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5905,9 +5936,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -5936,7 +5964,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5952,15 +5980,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="21" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6000,7 +6028,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6016,28 +6044,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="21" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -6046,10 +6074,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -6064,14 +6092,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6083,10 +6111,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6094,18 +6122,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6113,7 +6141,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6132,19 +6160,23 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6168,7 +6200,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6177,19 +6209,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -6208,24 +6240,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -6623,8 +6652,8 @@
   <sheetPr/>
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6653,14 +6682,14 @@
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
-      <c r="E3" s="169"/>
+      <c r="E3" s="168"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="75"/>
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
-      <c r="E4" s="170"/>
+      <c r="E4" s="169"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="80" t="s">
@@ -6684,7 +6713,7 @@
       </c>
       <c r="C6" s="85"/>
       <c r="D6" s="86"/>
-      <c r="E6" s="171"/>
+      <c r="E6" s="170"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="83"/>
@@ -6695,7 +6724,7 @@
       <c r="D7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="172"/>
+      <c r="E7" s="171"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="83"/>
@@ -6706,7 +6735,7 @@
       <c r="D8" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="172"/>
+      <c r="E8" s="171"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="83"/>
@@ -6715,7 +6744,7 @@
       <c r="D9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="172"/>
+      <c r="E9" s="171"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="83"/>
@@ -6724,7 +6753,7 @@
       </c>
       <c r="C10" s="85"/>
       <c r="D10" s="95"/>
-      <c r="E10" s="173"/>
+      <c r="E10" s="172"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="83"/>
@@ -6737,7 +6766,7 @@
       <c r="D11" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="174" t="s">
+      <c r="E11" s="173" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6748,7 +6777,7 @@
       <c r="D12" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="175"/>
+      <c r="E12" s="174"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="83"/>
@@ -6761,7 +6790,7 @@
       <c r="D13" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="175" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6772,7 +6801,7 @@
       <c r="D14" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="175"/>
+      <c r="E14" s="174"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="83"/>
@@ -6785,7 +6814,7 @@
       <c r="D15" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="176" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6796,7 +6825,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="106"/>
-      <c r="E16" s="178"/>
+      <c r="E16" s="177"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="83"/>
@@ -6805,7 +6834,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="109"/>
-      <c r="E17" s="178"/>
+      <c r="E17" s="177"/>
     </row>
     <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="83"/>
@@ -6816,7 +6845,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="112"/>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="178" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6829,7 +6858,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="112"/>
-      <c r="E19" s="180" t="s">
+      <c r="E19" s="179" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6842,7 +6871,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="112"/>
-      <c r="E20" s="181"/>
+      <c r="E20" s="180"/>
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="115"/>
@@ -6853,7 +6882,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="118"/>
-      <c r="E21" s="182"/>
+      <c r="E21" s="181"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="119" t="s">
@@ -6866,7 +6895,7 @@
       <c r="D22" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="183" t="s">
+      <c r="E22" s="182" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6877,7 +6906,7 @@
       </c>
       <c r="C23" s="85"/>
       <c r="D23" s="123"/>
-      <c r="E23" s="171"/>
+      <c r="E23" s="170"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="119"/>
@@ -6888,21 +6917,21 @@
       <c r="D24" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="172"/>
+      <c r="E24" s="171"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="119"/>
       <c r="B25" s="90"/>
       <c r="C25" s="91"/>
       <c r="D25" s="92"/>
-      <c r="E25" s="172"/>
+      <c r="E25" s="171"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="119"/>
       <c r="B26" s="126"/>
       <c r="C26" s="127"/>
       <c r="D26" s="94"/>
-      <c r="E26" s="172"/>
+      <c r="E26" s="171"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="119"/>
@@ -6911,7 +6940,7 @@
       </c>
       <c r="C27" s="128"/>
       <c r="D27" s="95"/>
-      <c r="E27" s="173"/>
+      <c r="E27" s="172"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="119"/>
@@ -6922,14 +6951,14 @@
       <c r="D28" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="175"/>
+      <c r="E28" s="174"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="119"/>
       <c r="B29" s="130"/>
       <c r="C29" s="11"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="175"/>
+      <c r="E29" s="174"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="119"/>
@@ -6942,7 +6971,7 @@
       <c r="D30" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="184" t="s">
+      <c r="E30" s="183" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6953,7 +6982,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="134"/>
-      <c r="E31" s="185"/>
+      <c r="E31" s="184"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="119"/>
@@ -6962,7 +6991,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="107"/>
-      <c r="E32" s="185"/>
+      <c r="E32" s="184"/>
     </row>
     <row r="33" ht="15.75" spans="1:5">
       <c r="A33" s="119"/>
@@ -6975,7 +7004,7 @@
       <c r="D33" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="185"/>
+      <c r="E33" s="184"/>
     </row>
     <row r="34" ht="15.75" spans="1:5">
       <c r="A34" s="119"/>
@@ -6988,7 +7017,7 @@
       <c r="D34" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="185"/>
+      <c r="E34" s="184"/>
     </row>
     <row r="35" ht="15.75" spans="1:5">
       <c r="A35" s="119"/>
@@ -6997,7 +7026,7 @@
       <c r="D35" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="185"/>
+      <c r="E35" s="184"/>
     </row>
     <row r="36" ht="15.75" spans="1:5">
       <c r="A36" s="119"/>
@@ -7006,153 +7035,153 @@
       <c r="D36" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="185"/>
+      <c r="E36" s="184"/>
     </row>
     <row r="37" ht="15.75" spans="1:5">
       <c r="A37" s="119"/>
       <c r="B37" s="107">
         <v>3</v>
       </c>
-      <c r="C37" s="141" t="s">
+      <c r="C37" s="137" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="185"/>
+      <c r="E37" s="184"/>
     </row>
     <row r="38" ht="15.75" spans="1:5">
       <c r="A38" s="119"/>
       <c r="B38" s="107">
         <v>4</v>
       </c>
-      <c r="C38" s="141" t="s">
+      <c r="C38" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="142"/>
-      <c r="E38" s="186"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="185"/>
     </row>
     <row r="39" ht="15.75" spans="1:5">
       <c r="A39" s="119"/>
       <c r="B39" s="107">
         <v>5</v>
       </c>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="142"/>
-      <c r="E39" s="186"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="185"/>
     </row>
     <row r="40" ht="16.5" spans="1:5">
-      <c r="A40" s="143"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="187"/>
+      <c r="A40" s="142"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="186"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="150" t="s">
+      <c r="C41" s="148"/>
+      <c r="D41" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="188" t="s">
+      <c r="E41" s="187" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="147"/>
+      <c r="A42" s="146"/>
       <c r="B42" s="84" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="85"/>
       <c r="D42" s="123"/>
-      <c r="E42" s="171"/>
+      <c r="E42" s="170"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="147"/>
+      <c r="A43" s="146"/>
       <c r="B43" s="87"/>
       <c r="C43" s="88"/>
       <c r="D43" s="89"/>
-      <c r="E43" s="172"/>
+      <c r="E43" s="171"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="147"/>
+      <c r="A44" s="146"/>
       <c r="B44" s="90"/>
       <c r="C44" s="91"/>
       <c r="D44" s="92"/>
-      <c r="E44" s="172"/>
+      <c r="E44" s="171"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="147"/>
+      <c r="A45" s="146"/>
       <c r="B45" s="126"/>
       <c r="C45" s="127"/>
       <c r="D45" s="94"/>
-      <c r="E45" s="172"/>
+      <c r="E45" s="171"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="147"/>
-      <c r="B46" s="151" t="s">
+      <c r="A46" s="146"/>
+      <c r="B46" s="150" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="128"/>
       <c r="D46" s="95"/>
-      <c r="E46" s="173"/>
+      <c r="E46" s="172"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="147"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="153"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="152"/>
       <c r="D47" s="95"/>
-      <c r="E47" s="175"/>
+      <c r="E47" s="174"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="147"/>
+      <c r="A48" s="146"/>
       <c r="B48" s="126"/>
       <c r="C48" s="16"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="175"/>
+      <c r="E48" s="174"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="147"/>
-      <c r="B49" s="154" t="s">
+      <c r="A49" s="146"/>
+      <c r="B49" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="155" t="s">
+      <c r="C49" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="156" t="s">
+      <c r="D49" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="189" t="s">
+      <c r="E49" s="188" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="147"/>
+      <c r="A50" s="146"/>
       <c r="B50" s="134"/>
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="156" t="s">
         <v>54</v>
       </c>
       <c r="D50" s="134"/>
-      <c r="E50" s="185"/>
+      <c r="E50" s="184"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="147"/>
+      <c r="A51" s="146"/>
       <c r="B51" s="107"/>
       <c r="C51" s="136" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="107"/>
-      <c r="E51" s="185"/>
+      <c r="E51" s="184"/>
     </row>
     <row r="52" ht="15.75" spans="1:5">
-      <c r="A52" s="147"/>
+      <c r="A52" s="146"/>
       <c r="B52" s="107">
         <v>1</v>
       </c>
@@ -7160,105 +7189,105 @@
         <v>56</v>
       </c>
       <c r="D52" s="107"/>
-      <c r="E52" s="185"/>
+      <c r="E52" s="184"/>
     </row>
     <row r="53" ht="16.5" spans="1:5">
-      <c r="A53" s="147"/>
+      <c r="A53" s="146"/>
       <c r="B53" s="107">
         <v>2</v>
       </c>
-      <c r="C53" s="158" t="s">
+      <c r="C53" s="157" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="185"/>
+      <c r="E53" s="184"/>
     </row>
     <row r="54" ht="15.75" spans="1:5">
-      <c r="A54" s="147"/>
+      <c r="A54" s="146"/>
       <c r="B54" s="107">
         <v>3</v>
       </c>
-      <c r="C54" s="159" t="s">
+      <c r="C54" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="160" t="s">
+      <c r="D54" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="185"/>
+      <c r="E54" s="184"/>
     </row>
     <row r="55" ht="15.75" spans="1:5">
-      <c r="A55" s="147"/>
+      <c r="A55" s="146"/>
       <c r="B55" s="107"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="160" t="s">
+      <c r="C55" s="158"/>
+      <c r="D55" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="185"/>
+      <c r="E55" s="184"/>
     </row>
     <row r="56" ht="15.75" spans="1:5">
-      <c r="A56" s="147"/>
+      <c r="A56" s="146"/>
       <c r="B56" s="107"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="160" t="s">
+      <c r="C56" s="158"/>
+      <c r="D56" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="185"/>
+      <c r="E56" s="184"/>
     </row>
     <row r="57" ht="16.5" spans="1:5">
-      <c r="A57" s="147"/>
+      <c r="A57" s="146"/>
       <c r="B57" s="107">
         <v>4</v>
       </c>
-      <c r="C57" s="161" t="s">
+      <c r="C57" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="162" t="s">
+      <c r="D57" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="186"/>
+      <c r="E57" s="185"/>
     </row>
     <row r="58" ht="15.75" spans="1:5">
-      <c r="A58" s="147"/>
+      <c r="A58" s="146"/>
       <c r="B58" s="107"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="186"/>
+      <c r="C58" s="162"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="185"/>
     </row>
     <row r="59" ht="16.5" spans="1:5">
-      <c r="A59" s="164"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="187"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="186"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="165" t="s">
+      <c r="A60" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="166" t="s">
+      <c r="B60" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="167"/>
-      <c r="D60" s="168" t="s">
+      <c r="C60" s="166"/>
+      <c r="D60" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="190" t="s">
+      <c r="E60" s="189" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="165"/>
+      <c r="A61" s="164"/>
       <c r="B61" s="84" t="s">
         <v>66</v>
       </c>
       <c r="C61" s="85"/>
       <c r="D61" s="123"/>
-      <c r="E61" s="171"/>
+      <c r="E61" s="170"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="165"/>
+      <c r="A62" s="164"/>
       <c r="B62" s="87" t="s">
         <v>67</v>
       </c>
@@ -7266,21 +7295,21 @@
       <c r="D62" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="172" t="s">
+      <c r="E62" s="171" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="165"/>
+      <c r="A63" s="164"/>
       <c r="B63" s="87"/>
       <c r="C63" s="88"/>
       <c r="D63" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="172"/>
+      <c r="E63" s="171"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="165"/>
+      <c r="A64" s="164"/>
       <c r="B64" s="90" t="s">
         <v>71</v>
       </c>
@@ -7288,35 +7317,35 @@
       <c r="D64" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="172" t="s">
+      <c r="E64" s="171" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="165"/>
+      <c r="A65" s="164"/>
       <c r="B65" s="126"/>
       <c r="C65" s="127"/>
       <c r="D65" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="172"/>
+      <c r="E65" s="171"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="165"/>
-      <c r="B66" s="151" t="s">
+      <c r="A66" s="164"/>
+      <c r="B66" s="150" t="s">
         <v>75</v>
       </c>
       <c r="C66" s="128"/>
-      <c r="D66" s="191"/>
+      <c r="D66" s="190"/>
       <c r="E66" s="232"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="165"/>
-      <c r="B67" s="151"/>
-      <c r="C67" s="192" t="s">
+      <c r="A67" s="164"/>
+      <c r="B67" s="150"/>
+      <c r="C67" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="193" t="s">
+      <c r="D67" s="192" t="s">
         <v>77</v>
       </c>
       <c r="E67" s="233" t="s">
@@ -7324,138 +7353,140 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="165"/>
-      <c r="B68" s="194" t="s">
+      <c r="A68" s="164"/>
+      <c r="B68" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="195"/>
-      <c r="D68" s="196" t="s">
+      <c r="C68" s="194"/>
+      <c r="D68" s="195" t="s">
         <v>79</v>
       </c>
       <c r="E68" s="15"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="165"/>
-      <c r="B69" s="197"/>
-      <c r="C69" s="198"/>
-      <c r="D69" s="196" t="s">
+      <c r="A69" s="164"/>
+      <c r="B69" s="196"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="234"/>
+      <c r="E69" s="233"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="165"/>
+      <c r="A70" s="164"/>
       <c r="B70" s="126" t="s">
         <v>81</v>
       </c>
       <c r="C70" s="16"/>
-      <c r="D70" s="199" t="s">
+      <c r="D70" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="234" t="s">
+      <c r="E70" s="233" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="165"/>
-      <c r="B71" s="200" t="s">
+      <c r="A71" s="164"/>
+      <c r="B71" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="201" t="s">
+      <c r="C71" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="202" t="s">
+      <c r="D71" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="235" t="s">
+      <c r="E71" s="234" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="165"/>
-      <c r="B72" s="203"/>
-      <c r="C72" s="204" t="s">
+      <c r="A72" s="164"/>
+      <c r="B72" s="202"/>
+      <c r="C72" s="203" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="104"/>
-      <c r="E72" s="185"/>
+      <c r="E72" s="184"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="165"/>
+      <c r="A73" s="164"/>
       <c r="B73" s="107"/>
       <c r="C73" s="136" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="107"/>
-      <c r="E73" s="185"/>
+      <c r="E73" s="184"/>
     </row>
     <row r="74" ht="16.5" spans="1:5">
-      <c r="A74" s="165"/>
+      <c r="A74" s="164"/>
       <c r="B74" s="107">
         <v>1</v>
       </c>
-      <c r="C74" s="205" t="s">
+      <c r="C74" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="206" t="s">
+      <c r="D74" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="E74" s="185"/>
+      <c r="E74" s="184"/>
     </row>
     <row r="75" ht="16.5" spans="1:5">
-      <c r="A75" s="165"/>
+      <c r="A75" s="164"/>
       <c r="B75" s="107">
         <v>2</v>
       </c>
       <c r="C75" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="207" t="s">
+      <c r="D75" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="185" t="s">
+      <c r="E75" s="184" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="76" ht="15.75" spans="1:5">
-      <c r="A76" s="165"/>
+      <c r="A76" s="164"/>
       <c r="B76" s="107">
         <v>3</v>
       </c>
-      <c r="C76" s="208" t="s">
+      <c r="C76" s="207" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="199" t="s">
+      <c r="D76" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="185"/>
+      <c r="E76" s="184"/>
     </row>
     <row r="77" ht="15.75" spans="1:5">
-      <c r="A77" s="165"/>
+      <c r="A77" s="164"/>
       <c r="B77" s="107"/>
-      <c r="C77" s="141"/>
-      <c r="D77" s="199" t="s">
+      <c r="C77" s="137"/>
+      <c r="D77" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="186"/>
+      <c r="E77" s="185"/>
     </row>
     <row r="78" ht="15.75" spans="1:5">
-      <c r="A78" s="165"/>
+      <c r="A78" s="164"/>
       <c r="B78" s="107"/>
-      <c r="C78" s="163"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="186"/>
+      <c r="C78" s="162"/>
+      <c r="D78" s="208" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="185"/>
     </row>
     <row r="79" ht="16.5" spans="1:5">
       <c r="A79" s="209"/>
-      <c r="B79" s="144"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="146"/>
-      <c r="E79" s="187"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="186"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="210" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="211" t="s">
         <v>4</v>
@@ -7464,18 +7495,18 @@
       <c r="D80" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="236" t="s">
+      <c r="E80" s="235" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="210"/>
       <c r="B81" s="84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C81" s="85"/>
       <c r="D81" s="123"/>
-      <c r="E81" s="171"/>
+      <c r="E81" s="170"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="210"/>
@@ -7483,12 +7514,12 @@
         <v>14</v>
       </c>
       <c r="C82" s="125" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D82" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="172" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="171" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7497,7 +7528,7 @@
       <c r="B83" s="87"/>
       <c r="C83" s="88"/>
       <c r="D83" s="89"/>
-      <c r="E83" s="172"/>
+      <c r="E83" s="171"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="210"/>
@@ -7508,9 +7539,9 @@
         <v>71</v>
       </c>
       <c r="D84" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="171" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7519,12 +7550,12 @@
       <c r="B85" s="126"/>
       <c r="C85" s="127"/>
       <c r="D85" s="92"/>
-      <c r="E85" s="172"/>
+      <c r="E85" s="171"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="210"/>
-      <c r="B86" s="151" t="s">
-        <v>98</v>
+      <c r="B86" s="150" t="s">
+        <v>99</v>
       </c>
       <c r="C86" s="217"/>
       <c r="D86" s="218"/>
@@ -7532,7 +7563,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="210"/>
-      <c r="B87" s="151"/>
+      <c r="B87" s="150"/>
       <c r="C87" s="219" t="s">
         <v>76</v>
       </c>
@@ -7541,33 +7572,33 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="210"/>
-      <c r="B88" s="194" t="s">
+      <c r="B88" s="193" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="221"/>
-      <c r="D88" s="206" t="s">
-        <v>99</v>
+      <c r="D88" s="205" t="s">
+        <v>100</v>
       </c>
       <c r="E88" s="15"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="210"/>
-      <c r="B89" s="197"/>
+      <c r="B89" s="196"/>
       <c r="C89" s="42"/>
-      <c r="D89" s="206" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="234"/>
+      <c r="D89" s="205" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="233"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="210"/>
       <c r="B90" s="126"/>
       <c r="C90" s="222"/>
       <c r="D90" s="223" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" s="234" t="s">
         <v>102</v>
+      </c>
+      <c r="E90" s="233" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -7581,27 +7612,27 @@
       <c r="D91" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="237" t="s">
+      <c r="E91" s="236" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="210"/>
-      <c r="B92" s="203"/>
-      <c r="C92" s="204" t="s">
-        <v>103</v>
+      <c r="B92" s="202"/>
+      <c r="C92" s="203" t="s">
+        <v>104</v>
       </c>
       <c r="D92" s="104"/>
-      <c r="E92" s="185"/>
+      <c r="E92" s="184"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="210"/>
       <c r="B93" s="107"/>
       <c r="C93" s="136" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D93" s="107"/>
-      <c r="E93" s="185"/>
+      <c r="E93" s="184"/>
     </row>
     <row r="94" ht="15.75" spans="1:5">
       <c r="A94" s="210"/>
@@ -7609,10 +7640,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D94" s="107"/>
-      <c r="E94" s="185"/>
+      <c r="E94" s="184"/>
     </row>
     <row r="95" ht="15.75" spans="1:5">
       <c r="A95" s="210"/>
@@ -7620,82 +7651,82 @@
         <v>2</v>
       </c>
       <c r="C95" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="E95" s="185"/>
+      <c r="D95" s="205" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="184"/>
     </row>
     <row r="96" ht="15.75" spans="1:5">
       <c r="A96" s="210"/>
       <c r="B96" s="107">
         <v>3</v>
       </c>
-      <c r="C96" s="141" t="s">
-        <v>108</v>
+      <c r="C96" s="137" t="s">
+        <v>109</v>
       </c>
       <c r="D96" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="185"/>
+        <v>110</v>
+      </c>
+      <c r="E96" s="184"/>
     </row>
     <row r="97" ht="15.75" spans="1:5">
       <c r="A97" s="210"/>
       <c r="B97" s="107"/>
-      <c r="C97" s="141"/>
+      <c r="C97" s="137"/>
       <c r="D97" s="140" t="s">
-        <v>110</v>
-      </c>
-      <c r="E97" s="185"/>
+        <v>111</v>
+      </c>
+      <c r="E97" s="184"/>
     </row>
     <row r="98" ht="15.75" spans="1:5">
       <c r="A98" s="210"/>
       <c r="B98" s="107"/>
-      <c r="C98" s="141"/>
+      <c r="C98" s="137"/>
       <c r="D98" s="140" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" s="185"/>
+        <v>112</v>
+      </c>
+      <c r="E98" s="184"/>
     </row>
     <row r="99" ht="15.75" spans="1:5">
       <c r="A99" s="210"/>
       <c r="B99" s="107">
         <v>4</v>
       </c>
-      <c r="C99" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" s="206" t="s">
+      <c r="C99" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="E99" s="186" t="s">
+      <c r="D99" s="205" t="s">
         <v>114</v>
+      </c>
+      <c r="E99" s="185" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="100" ht="15.75" spans="1:5">
       <c r="A100" s="210"/>
       <c r="B100" s="107"/>
-      <c r="C100" s="163"/>
-      <c r="D100" s="206"/>
-      <c r="E100" s="186"/>
+      <c r="C100" s="162"/>
+      <c r="D100" s="205"/>
+      <c r="E100" s="185"/>
     </row>
     <row r="101" ht="16.5" spans="1:5">
       <c r="A101" s="227"/>
-      <c r="B101" s="144"/>
-      <c r="C101" s="145"/>
-      <c r="D101" s="146"/>
-      <c r="E101" s="187"/>
+      <c r="B101" s="143"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="145"/>
+      <c r="E101" s="186"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -7709,10 +7740,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="228" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -7721,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="229" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -7730,28 +7761,28 @@
         <v>2</v>
       </c>
       <c r="C109" s="230" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E109" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="36"/>
       <c r="C110" s="36"/>
       <c r="D110" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="4:5">
       <c r="D111" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" s="238" t="s">
         <v>125</v>
+      </c>
+      <c r="E111" s="237" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -7833,7 +7864,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7844,7 +7875,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2"/>
       <c r="G3" s="42"/>
@@ -7857,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>23</v>
@@ -7876,7 +7907,7 @@
     <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="46"/>
@@ -7890,7 +7921,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>25</v>
@@ -7901,19 +7932,19 @@
     </row>
     <row r="7" ht="15.75" spans="1:8">
       <c r="A7" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="51"/>
@@ -7921,10 +7952,10 @@
     </row>
     <row r="8" ht="15.75" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8">
@@ -7967,17 +7998,17 @@
     </row>
     <row r="12" ht="15.75" spans="1:8">
       <c r="A12" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -7991,25 +8022,25 @@
         <v>2</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H13" s="52"/>
     </row>
     <row r="14" ht="15.75" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
@@ -8020,7 +8051,7 @@
       <c r="B15" s="24"/>
       <c r="C15" s="23"/>
       <c r="E15" s="58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
@@ -8042,7 +8073,7 @@
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="E17" s="59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -8053,12 +8084,12 @@
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="23"/>
       <c r="E19" s="61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
@@ -8069,11 +8100,11 @@
       <c r="B20" s="24"/>
       <c r="C20" s="23"/>
       <c r="E20" s="63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20" s="52"/>
     </row>
@@ -8115,11 +8146,11 @@
       <c r="B24" s="24"/>
       <c r="C24" s="23"/>
       <c r="E24" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" s="52"/>
     </row>
@@ -8134,14 +8165,14 @@
     </row>
     <row r="26" ht="15.75" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" s="25"/>
       <c r="E26" s="66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
@@ -8152,7 +8183,7 @@
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
       <c r="E27" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
@@ -8163,7 +8194,7 @@
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="E28" s="49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
@@ -8172,7 +8203,7 @@
     <row r="29" ht="15.75" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" s="25"/>
       <c r="E29" s="67" t="s">
@@ -8186,14 +8217,14 @@
       <c r="A30" s="11"/>
       <c r="B30" s="24"/>
       <c r="C30" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F30" s="49"/>
       <c r="G30" s="68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H30" s="52"/>
     </row>
@@ -8201,7 +8232,7 @@
       <c r="A31" s="16"/>
       <c r="B31" s="27"/>
       <c r="C31" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E31" s="60"/>
       <c r="F31" s="60"/>
@@ -8210,14 +8241,14 @@
     </row>
     <row r="32" ht="15.75" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32" s="31"/>
       <c r="E32" s="69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
@@ -8235,13 +8266,13 @@
     <row r="34" ht="15.75" spans="1:8">
       <c r="A34" s="11"/>
       <c r="B34" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F34" s="49"/>
       <c r="G34" s="49"/>
@@ -8251,10 +8282,10 @@
       <c r="A35" s="11"/>
       <c r="B35" s="24"/>
       <c r="C35" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="49"/>
@@ -8264,10 +8295,10 @@
       <c r="A36" s="11"/>
       <c r="B36" s="24"/>
       <c r="C36" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="49"/>
@@ -8277,24 +8308,24 @@
       <c r="B37" s="33"/>
       <c r="C37" s="34"/>
       <c r="E37" s="70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F37" s="71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G37" s="72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -8303,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8311,25 +8342,25 @@
         <v>1</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
       <c r="A46" s="36"/>
       <c r="C46" s="37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F46" s="73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -8337,7 +8368,7 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -8346,10 +8377,10 @@
       <c r="A48" s="36"/>
       <c r="C48" s="36"/>
       <c r="D48" s="38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F48" s="73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G48" s="37"/>
     </row>
